--- a/Excel/9COUNTIF函数/第9讲Countif函数.xlsx
+++ b/Excel/9COUNTIF函数/第9讲Countif函数.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xmind\Excel\9COUNTIF函数\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298C3A2-7EAD-44AA-8C9F-50252B36DB7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9588" yWindow="12" windowWidth="9636" windowHeight="7872"/>
+    <workbookView xWindow="9585" yWindow="15" windowWidth="9630" windowHeight="7875" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCEL课件" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
     <sheet name="条件格式" sheetId="24" r:id="rId7"/>
     <sheet name="countifs" sheetId="26" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="162">
   <si>
     <t>一、</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,11 +757,15 @@
     <t>是否体检</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>王李平</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
@@ -932,7 +942,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1016,17 +1026,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_函数练习事例" xfId="2"/>
+    <cellStyle name="常规_函数练习事例" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1049,7 +1095,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1087,7 +1139,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="图片 7"/>
+        <xdr:cNvPr id="1051" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1186,7 +1244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,9 +1277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1254,6 +1329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1429,28 +1521,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor indexed="60"/>
   </sheetPr>
   <dimension ref="A6:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="8" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>0</v>
@@ -1519,18 +1611,18 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="7"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1659,7 @@
     <row r="37" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1575,24 +1667,24 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E44" s="5"/>
     </row>
   </sheetData>
@@ -1605,775 +1697,775 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="224" width="9" style="11"/>
     <col min="225" max="225" width="3" style="11" customWidth="1"/>
-    <col min="226" max="226" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="228" max="229" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="231" max="234" width="9" style="11"/>
-    <col min="235" max="235" width="11.19921875" style="11" customWidth="1"/>
-    <col min="236" max="236" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="11.25" style="11" customWidth="1"/>
+    <col min="236" max="236" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="237" max="238" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="240" max="241" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="240" max="241" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="242" max="480" width="9" style="11"/>
     <col min="481" max="481" width="3" style="11" customWidth="1"/>
-    <col min="482" max="482" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="484" max="485" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="487" max="490" width="9" style="11"/>
-    <col min="491" max="491" width="11.19921875" style="11" customWidth="1"/>
-    <col min="492" max="492" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="11.25" style="11" customWidth="1"/>
+    <col min="492" max="492" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="493" max="494" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="496" max="497" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="496" max="497" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="498" max="736" width="9" style="11"/>
     <col min="737" max="737" width="3" style="11" customWidth="1"/>
-    <col min="738" max="738" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="739" max="739" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="739" max="739" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="740" max="741" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="742" max="742" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="742" max="742" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="743" max="746" width="9" style="11"/>
-    <col min="747" max="747" width="11.19921875" style="11" customWidth="1"/>
-    <col min="748" max="748" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="11.25" style="11" customWidth="1"/>
+    <col min="748" max="748" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="749" max="750" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="751" max="751" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="752" max="753" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="751" max="751" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="752" max="753" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="754" max="992" width="9" style="11"/>
     <col min="993" max="993" width="3" style="11" customWidth="1"/>
-    <col min="994" max="994" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="995" max="995" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="994" max="994" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="995" max="995" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="996" max="997" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="998" max="998" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="998" max="998" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="999" max="1002" width="9" style="11"/>
-    <col min="1003" max="1003" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1004" max="1004" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1003" max="1003" width="11.25" style="11" customWidth="1"/>
+    <col min="1004" max="1004" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1005" max="1006" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1007" max="1007" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1008" max="1009" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1007" max="1007" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1008" max="1009" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1010" max="1248" width="9" style="11"/>
     <col min="1249" max="1249" width="3" style="11" customWidth="1"/>
-    <col min="1250" max="1250" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1251" max="1251" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1250" max="1250" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1251" max="1251" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1252" max="1253" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1254" max="1254" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1254" max="1254" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1255" max="1258" width="9" style="11"/>
-    <col min="1259" max="1259" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1260" max="1260" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1259" max="1259" width="11.25" style="11" customWidth="1"/>
+    <col min="1260" max="1260" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1261" max="1262" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1263" max="1263" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1264" max="1265" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1263" max="1263" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1264" max="1265" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1266" max="1504" width="9" style="11"/>
     <col min="1505" max="1505" width="3" style="11" customWidth="1"/>
-    <col min="1506" max="1506" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1507" max="1507" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1506" max="1506" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1507" max="1507" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1508" max="1509" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1510" max="1510" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1510" max="1510" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1511" max="1514" width="9" style="11"/>
-    <col min="1515" max="1515" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1516" max="1516" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1515" max="1515" width="11.25" style="11" customWidth="1"/>
+    <col min="1516" max="1516" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1517" max="1518" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1519" max="1519" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1520" max="1521" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1519" max="1519" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1520" max="1521" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1522" max="1760" width="9" style="11"/>
     <col min="1761" max="1761" width="3" style="11" customWidth="1"/>
-    <col min="1762" max="1762" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1763" max="1763" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1762" max="1762" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1763" max="1763" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1764" max="1765" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1766" max="1766" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1766" max="1766" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1767" max="1770" width="9" style="11"/>
-    <col min="1771" max="1771" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1772" max="1772" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1771" max="1771" width="11.25" style="11" customWidth="1"/>
+    <col min="1772" max="1772" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1773" max="1774" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1775" max="1775" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1776" max="1777" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1775" max="1775" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1776" max="1777" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1778" max="2016" width="9" style="11"/>
     <col min="2017" max="2017" width="3" style="11" customWidth="1"/>
-    <col min="2018" max="2018" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2019" max="2019" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2018" max="2018" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2019" max="2019" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2020" max="2021" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2022" max="2022" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2022" max="2022" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2023" max="2026" width="9" style="11"/>
-    <col min="2027" max="2027" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2028" max="2028" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2027" max="2027" width="11.25" style="11" customWidth="1"/>
+    <col min="2028" max="2028" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2029" max="2030" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2031" max="2031" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2032" max="2033" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2031" max="2031" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2032" max="2033" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2034" max="2272" width="9" style="11"/>
     <col min="2273" max="2273" width="3" style="11" customWidth="1"/>
-    <col min="2274" max="2274" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2275" max="2275" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2274" max="2274" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2275" max="2275" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2276" max="2277" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2278" max="2278" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2278" max="2278" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2279" max="2282" width="9" style="11"/>
-    <col min="2283" max="2283" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2284" max="2284" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2283" max="2283" width="11.25" style="11" customWidth="1"/>
+    <col min="2284" max="2284" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2285" max="2286" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2287" max="2287" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2288" max="2289" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2287" max="2287" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2288" max="2289" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2290" max="2528" width="9" style="11"/>
     <col min="2529" max="2529" width="3" style="11" customWidth="1"/>
-    <col min="2530" max="2530" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2531" max="2531" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2530" max="2530" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2531" max="2531" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2532" max="2533" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2534" max="2534" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2534" max="2534" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2535" max="2538" width="9" style="11"/>
-    <col min="2539" max="2539" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2540" max="2540" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2539" max="2539" width="11.25" style="11" customWidth="1"/>
+    <col min="2540" max="2540" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2541" max="2542" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2543" max="2543" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2544" max="2545" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2543" max="2543" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2544" max="2545" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2546" max="2784" width="9" style="11"/>
     <col min="2785" max="2785" width="3" style="11" customWidth="1"/>
-    <col min="2786" max="2786" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2787" max="2787" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2786" max="2786" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2787" max="2787" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2788" max="2789" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2790" max="2790" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2790" max="2790" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2791" max="2794" width="9" style="11"/>
-    <col min="2795" max="2795" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2796" max="2796" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2795" max="2795" width="11.25" style="11" customWidth="1"/>
+    <col min="2796" max="2796" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2797" max="2798" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2799" max="2799" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2800" max="2801" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2799" max="2799" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2800" max="2801" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2802" max="3040" width="9" style="11"/>
     <col min="3041" max="3041" width="3" style="11" customWidth="1"/>
-    <col min="3042" max="3042" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3043" max="3043" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3042" max="3042" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3043" max="3043" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3044" max="3045" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3046" max="3046" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3046" max="3046" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3047" max="3050" width="9" style="11"/>
-    <col min="3051" max="3051" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3052" max="3052" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3051" max="3051" width="11.25" style="11" customWidth="1"/>
+    <col min="3052" max="3052" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3053" max="3054" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3055" max="3055" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3056" max="3057" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3055" max="3055" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3056" max="3057" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3058" max="3296" width="9" style="11"/>
     <col min="3297" max="3297" width="3" style="11" customWidth="1"/>
-    <col min="3298" max="3298" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3299" max="3299" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3298" max="3298" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3299" max="3299" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3300" max="3301" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3302" max="3302" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3302" max="3302" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3303" max="3306" width="9" style="11"/>
-    <col min="3307" max="3307" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3308" max="3308" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3307" max="3307" width="11.25" style="11" customWidth="1"/>
+    <col min="3308" max="3308" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3309" max="3310" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3311" max="3311" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3312" max="3313" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3311" max="3311" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3312" max="3313" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3314" max="3552" width="9" style="11"/>
     <col min="3553" max="3553" width="3" style="11" customWidth="1"/>
-    <col min="3554" max="3554" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3555" max="3555" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3554" max="3554" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3555" max="3555" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3556" max="3557" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3558" max="3558" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3558" max="3558" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3559" max="3562" width="9" style="11"/>
-    <col min="3563" max="3563" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3564" max="3564" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3563" max="3563" width="11.25" style="11" customWidth="1"/>
+    <col min="3564" max="3564" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3565" max="3566" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3567" max="3567" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3568" max="3569" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3567" max="3567" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3568" max="3569" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3570" max="3808" width="9" style="11"/>
     <col min="3809" max="3809" width="3" style="11" customWidth="1"/>
-    <col min="3810" max="3810" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3811" max="3811" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3810" max="3810" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3811" max="3811" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3812" max="3813" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3814" max="3814" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3814" max="3814" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3815" max="3818" width="9" style="11"/>
-    <col min="3819" max="3819" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3820" max="3820" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3819" max="3819" width="11.25" style="11" customWidth="1"/>
+    <col min="3820" max="3820" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3821" max="3822" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3823" max="3823" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3824" max="3825" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3823" max="3823" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3824" max="3825" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3826" max="4064" width="9" style="11"/>
     <col min="4065" max="4065" width="3" style="11" customWidth="1"/>
-    <col min="4066" max="4066" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4067" max="4067" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4066" max="4066" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4067" max="4067" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4068" max="4069" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4070" max="4070" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4070" max="4070" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4071" max="4074" width="9" style="11"/>
-    <col min="4075" max="4075" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4076" max="4076" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4075" max="4075" width="11.25" style="11" customWidth="1"/>
+    <col min="4076" max="4076" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4077" max="4078" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4079" max="4079" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4080" max="4081" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4079" max="4079" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4080" max="4081" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4082" max="4320" width="9" style="11"/>
     <col min="4321" max="4321" width="3" style="11" customWidth="1"/>
-    <col min="4322" max="4322" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4323" max="4323" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4322" max="4322" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4323" max="4323" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4324" max="4325" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4326" max="4326" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4326" max="4326" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4327" max="4330" width="9" style="11"/>
-    <col min="4331" max="4331" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4332" max="4332" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4331" max="4331" width="11.25" style="11" customWidth="1"/>
+    <col min="4332" max="4332" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4333" max="4334" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4335" max="4335" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4336" max="4337" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4335" max="4335" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4336" max="4337" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4338" max="4576" width="9" style="11"/>
     <col min="4577" max="4577" width="3" style="11" customWidth="1"/>
-    <col min="4578" max="4578" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4579" max="4579" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4578" max="4578" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4579" max="4579" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4580" max="4581" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4582" max="4582" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4582" max="4582" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4583" max="4586" width="9" style="11"/>
-    <col min="4587" max="4587" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4588" max="4588" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4587" max="4587" width="11.25" style="11" customWidth="1"/>
+    <col min="4588" max="4588" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4589" max="4590" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4591" max="4591" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4592" max="4593" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4591" max="4591" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4592" max="4593" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4594" max="4832" width="9" style="11"/>
     <col min="4833" max="4833" width="3" style="11" customWidth="1"/>
-    <col min="4834" max="4834" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4835" max="4835" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4834" max="4834" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4835" max="4835" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4836" max="4837" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4838" max="4838" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4838" max="4838" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4839" max="4842" width="9" style="11"/>
-    <col min="4843" max="4843" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4844" max="4844" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4843" max="4843" width="11.25" style="11" customWidth="1"/>
+    <col min="4844" max="4844" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4845" max="4846" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4847" max="4847" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4848" max="4849" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4847" max="4847" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4848" max="4849" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4850" max="5088" width="9" style="11"/>
     <col min="5089" max="5089" width="3" style="11" customWidth="1"/>
-    <col min="5090" max="5090" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5091" max="5091" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5090" max="5090" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5091" max="5091" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5092" max="5093" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5094" max="5094" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5094" max="5094" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5095" max="5098" width="9" style="11"/>
-    <col min="5099" max="5099" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5100" max="5100" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5099" max="5099" width="11.25" style="11" customWidth="1"/>
+    <col min="5100" max="5100" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5101" max="5102" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5103" max="5103" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5104" max="5105" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5103" max="5103" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5104" max="5105" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5106" max="5344" width="9" style="11"/>
     <col min="5345" max="5345" width="3" style="11" customWidth="1"/>
-    <col min="5346" max="5346" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5347" max="5347" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5346" max="5346" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5347" max="5347" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5348" max="5349" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5350" max="5350" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5350" max="5350" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5351" max="5354" width="9" style="11"/>
-    <col min="5355" max="5355" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5356" max="5356" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5355" max="5355" width="11.25" style="11" customWidth="1"/>
+    <col min="5356" max="5356" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5357" max="5358" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5359" max="5359" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5360" max="5361" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5359" max="5359" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5360" max="5361" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5362" max="5600" width="9" style="11"/>
     <col min="5601" max="5601" width="3" style="11" customWidth="1"/>
-    <col min="5602" max="5602" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5603" max="5603" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5602" max="5602" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5603" max="5603" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5604" max="5605" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5606" max="5606" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5606" max="5606" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5607" max="5610" width="9" style="11"/>
-    <col min="5611" max="5611" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5612" max="5612" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5611" max="5611" width="11.25" style="11" customWidth="1"/>
+    <col min="5612" max="5612" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5613" max="5614" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5615" max="5615" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5616" max="5617" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5615" max="5615" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5616" max="5617" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5618" max="5856" width="9" style="11"/>
     <col min="5857" max="5857" width="3" style="11" customWidth="1"/>
-    <col min="5858" max="5858" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5859" max="5859" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5858" max="5858" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5859" max="5859" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5860" max="5861" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5862" max="5862" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5862" max="5862" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5863" max="5866" width="9" style="11"/>
-    <col min="5867" max="5867" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5868" max="5868" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5867" max="5867" width="11.25" style="11" customWidth="1"/>
+    <col min="5868" max="5868" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5869" max="5870" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5871" max="5871" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5872" max="5873" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5871" max="5871" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5872" max="5873" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5874" max="6112" width="9" style="11"/>
     <col min="6113" max="6113" width="3" style="11" customWidth="1"/>
-    <col min="6114" max="6114" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6115" max="6115" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6114" max="6114" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6115" max="6115" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6116" max="6117" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6118" max="6118" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6118" max="6118" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6119" max="6122" width="9" style="11"/>
-    <col min="6123" max="6123" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6124" max="6124" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6123" max="6123" width="11.25" style="11" customWidth="1"/>
+    <col min="6124" max="6124" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6125" max="6126" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6127" max="6127" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6128" max="6129" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6127" max="6127" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6128" max="6129" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6130" max="6368" width="9" style="11"/>
     <col min="6369" max="6369" width="3" style="11" customWidth="1"/>
-    <col min="6370" max="6370" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6371" max="6371" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6370" max="6370" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6371" max="6371" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6372" max="6373" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6374" max="6374" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6374" max="6374" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6375" max="6378" width="9" style="11"/>
-    <col min="6379" max="6379" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6380" max="6380" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6379" max="6379" width="11.25" style="11" customWidth="1"/>
+    <col min="6380" max="6380" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6381" max="6382" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6383" max="6383" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6384" max="6385" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6383" max="6383" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6384" max="6385" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6386" max="6624" width="9" style="11"/>
     <col min="6625" max="6625" width="3" style="11" customWidth="1"/>
-    <col min="6626" max="6626" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6627" max="6627" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6626" max="6626" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6627" max="6627" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6628" max="6629" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6630" max="6630" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6630" max="6630" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6631" max="6634" width="9" style="11"/>
-    <col min="6635" max="6635" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6636" max="6636" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6635" max="6635" width="11.25" style="11" customWidth="1"/>
+    <col min="6636" max="6636" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6637" max="6638" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6639" max="6639" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6640" max="6641" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6639" max="6639" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6640" max="6641" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6642" max="6880" width="9" style="11"/>
     <col min="6881" max="6881" width="3" style="11" customWidth="1"/>
-    <col min="6882" max="6882" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6883" max="6883" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6882" max="6882" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6883" max="6883" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6884" max="6885" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6886" max="6886" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6886" max="6886" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6887" max="6890" width="9" style="11"/>
-    <col min="6891" max="6891" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6892" max="6892" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6891" max="6891" width="11.25" style="11" customWidth="1"/>
+    <col min="6892" max="6892" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6893" max="6894" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6895" max="6895" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6896" max="6897" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6895" max="6895" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6896" max="6897" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6898" max="7136" width="9" style="11"/>
     <col min="7137" max="7137" width="3" style="11" customWidth="1"/>
-    <col min="7138" max="7138" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7139" max="7139" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7138" max="7138" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7139" max="7139" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7140" max="7141" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7142" max="7142" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7142" max="7142" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7143" max="7146" width="9" style="11"/>
-    <col min="7147" max="7147" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7148" max="7148" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7147" max="7147" width="11.25" style="11" customWidth="1"/>
+    <col min="7148" max="7148" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7149" max="7150" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7151" max="7151" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7152" max="7153" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7151" max="7151" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7152" max="7153" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7154" max="7392" width="9" style="11"/>
     <col min="7393" max="7393" width="3" style="11" customWidth="1"/>
-    <col min="7394" max="7394" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7395" max="7395" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7394" max="7394" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7395" max="7395" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7396" max="7397" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7398" max="7398" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7398" max="7398" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7399" max="7402" width="9" style="11"/>
-    <col min="7403" max="7403" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7404" max="7404" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7403" max="7403" width="11.25" style="11" customWidth="1"/>
+    <col min="7404" max="7404" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7405" max="7406" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7407" max="7407" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7408" max="7409" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7407" max="7407" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7408" max="7409" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7410" max="7648" width="9" style="11"/>
     <col min="7649" max="7649" width="3" style="11" customWidth="1"/>
-    <col min="7650" max="7650" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7651" max="7651" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7650" max="7650" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7651" max="7651" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7652" max="7653" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7654" max="7654" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7654" max="7654" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7655" max="7658" width="9" style="11"/>
-    <col min="7659" max="7659" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7660" max="7660" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7659" max="7659" width="11.25" style="11" customWidth="1"/>
+    <col min="7660" max="7660" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7661" max="7662" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7663" max="7663" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7664" max="7665" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7663" max="7663" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7664" max="7665" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7666" max="7904" width="9" style="11"/>
     <col min="7905" max="7905" width="3" style="11" customWidth="1"/>
-    <col min="7906" max="7906" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7907" max="7907" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7906" max="7906" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7907" max="7907" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7908" max="7909" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7910" max="7910" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7910" max="7910" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7911" max="7914" width="9" style="11"/>
-    <col min="7915" max="7915" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7916" max="7916" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7915" max="7915" width="11.25" style="11" customWidth="1"/>
+    <col min="7916" max="7916" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7917" max="7918" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7919" max="7919" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7920" max="7921" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7919" max="7919" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7920" max="7921" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7922" max="8160" width="9" style="11"/>
     <col min="8161" max="8161" width="3" style="11" customWidth="1"/>
-    <col min="8162" max="8162" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8163" max="8163" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8162" max="8162" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8163" max="8163" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8164" max="8165" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8166" max="8166" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8166" max="8166" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8167" max="8170" width="9" style="11"/>
-    <col min="8171" max="8171" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8172" max="8172" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8171" max="8171" width="11.25" style="11" customWidth="1"/>
+    <col min="8172" max="8172" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8173" max="8174" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8175" max="8175" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8176" max="8177" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8175" max="8175" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8176" max="8177" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8178" max="8416" width="9" style="11"/>
     <col min="8417" max="8417" width="3" style="11" customWidth="1"/>
-    <col min="8418" max="8418" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8419" max="8419" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8418" max="8418" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8419" max="8419" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8420" max="8421" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8422" max="8422" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8422" max="8422" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8423" max="8426" width="9" style="11"/>
-    <col min="8427" max="8427" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8428" max="8428" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8427" max="8427" width="11.25" style="11" customWidth="1"/>
+    <col min="8428" max="8428" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8429" max="8430" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8431" max="8431" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8432" max="8433" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8431" max="8431" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8432" max="8433" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8434" max="8672" width="9" style="11"/>
     <col min="8673" max="8673" width="3" style="11" customWidth="1"/>
-    <col min="8674" max="8674" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8675" max="8675" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8674" max="8674" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8675" max="8675" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8676" max="8677" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8678" max="8678" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8678" max="8678" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8679" max="8682" width="9" style="11"/>
-    <col min="8683" max="8683" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8684" max="8684" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8683" max="8683" width="11.25" style="11" customWidth="1"/>
+    <col min="8684" max="8684" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8685" max="8686" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8687" max="8687" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8688" max="8689" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8687" max="8687" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8688" max="8689" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8690" max="8928" width="9" style="11"/>
     <col min="8929" max="8929" width="3" style="11" customWidth="1"/>
-    <col min="8930" max="8930" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8931" max="8931" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8930" max="8930" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8931" max="8931" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8932" max="8933" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8934" max="8934" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8934" max="8934" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8935" max="8938" width="9" style="11"/>
-    <col min="8939" max="8939" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8940" max="8940" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8939" max="8939" width="11.25" style="11" customWidth="1"/>
+    <col min="8940" max="8940" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8941" max="8942" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8943" max="8943" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8944" max="8945" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8943" max="8943" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8944" max="8945" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8946" max="9184" width="9" style="11"/>
     <col min="9185" max="9185" width="3" style="11" customWidth="1"/>
-    <col min="9186" max="9186" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9187" max="9187" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9186" max="9186" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9187" max="9187" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9188" max="9189" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9190" max="9190" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9190" max="9190" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9191" max="9194" width="9" style="11"/>
-    <col min="9195" max="9195" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9196" max="9196" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9195" max="9195" width="11.25" style="11" customWidth="1"/>
+    <col min="9196" max="9196" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9197" max="9198" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9199" max="9199" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9200" max="9201" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9199" max="9199" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9200" max="9201" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9202" max="9440" width="9" style="11"/>
     <col min="9441" max="9441" width="3" style="11" customWidth="1"/>
-    <col min="9442" max="9442" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9443" max="9443" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9442" max="9442" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9443" max="9443" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9444" max="9445" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9446" max="9446" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9446" max="9446" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9447" max="9450" width="9" style="11"/>
-    <col min="9451" max="9451" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9452" max="9452" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9451" max="9451" width="11.25" style="11" customWidth="1"/>
+    <col min="9452" max="9452" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9453" max="9454" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9455" max="9455" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9456" max="9457" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9455" max="9455" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9456" max="9457" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9458" max="9696" width="9" style="11"/>
     <col min="9697" max="9697" width="3" style="11" customWidth="1"/>
-    <col min="9698" max="9698" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9699" max="9699" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9698" max="9698" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9699" max="9699" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9700" max="9701" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9702" max="9702" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9702" max="9702" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9703" max="9706" width="9" style="11"/>
-    <col min="9707" max="9707" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9708" max="9708" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9707" max="9707" width="11.25" style="11" customWidth="1"/>
+    <col min="9708" max="9708" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9709" max="9710" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9711" max="9711" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9712" max="9713" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9711" max="9711" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9712" max="9713" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9714" max="9952" width="9" style="11"/>
     <col min="9953" max="9953" width="3" style="11" customWidth="1"/>
-    <col min="9954" max="9954" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9955" max="9955" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9954" max="9954" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9955" max="9955" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9956" max="9957" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9958" max="9958" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9958" max="9958" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9959" max="9962" width="9" style="11"/>
-    <col min="9963" max="9963" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9964" max="9964" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9963" max="9963" width="11.25" style="11" customWidth="1"/>
+    <col min="9964" max="9964" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9965" max="9966" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9967" max="9967" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9968" max="9969" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9967" max="9967" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9968" max="9969" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9970" max="10208" width="9" style="11"/>
     <col min="10209" max="10209" width="3" style="11" customWidth="1"/>
-    <col min="10210" max="10210" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10211" max="10211" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10210" max="10210" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10211" max="10211" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10212" max="10213" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10214" max="10214" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10214" max="10214" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10215" max="10218" width="9" style="11"/>
-    <col min="10219" max="10219" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10220" max="10220" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10219" max="10219" width="11.25" style="11" customWidth="1"/>
+    <col min="10220" max="10220" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10221" max="10222" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10223" max="10223" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10224" max="10225" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10223" max="10223" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10224" max="10225" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10226" max="10464" width="9" style="11"/>
     <col min="10465" max="10465" width="3" style="11" customWidth="1"/>
-    <col min="10466" max="10466" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10467" max="10467" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10466" max="10466" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10467" max="10467" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10468" max="10469" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10470" max="10470" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10470" max="10470" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10471" max="10474" width="9" style="11"/>
-    <col min="10475" max="10475" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10476" max="10476" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10475" max="10475" width="11.25" style="11" customWidth="1"/>
+    <col min="10476" max="10476" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10477" max="10478" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10479" max="10479" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10480" max="10481" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10479" max="10479" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10480" max="10481" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10482" max="10720" width="9" style="11"/>
     <col min="10721" max="10721" width="3" style="11" customWidth="1"/>
-    <col min="10722" max="10722" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10723" max="10723" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10722" max="10722" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10723" max="10723" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10724" max="10725" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10726" max="10726" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10726" max="10726" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10727" max="10730" width="9" style="11"/>
-    <col min="10731" max="10731" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10732" max="10732" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10731" max="10731" width="11.25" style="11" customWidth="1"/>
+    <col min="10732" max="10732" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10733" max="10734" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10735" max="10735" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10736" max="10737" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10735" max="10735" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10736" max="10737" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10738" max="10976" width="9" style="11"/>
     <col min="10977" max="10977" width="3" style="11" customWidth="1"/>
-    <col min="10978" max="10978" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10979" max="10979" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10978" max="10978" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10979" max="10979" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10980" max="10981" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10982" max="10982" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10982" max="10982" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10983" max="10986" width="9" style="11"/>
-    <col min="10987" max="10987" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10988" max="10988" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10987" max="10987" width="11.25" style="11" customWidth="1"/>
+    <col min="10988" max="10988" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10989" max="10990" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10991" max="10991" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10992" max="10993" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10991" max="10991" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10992" max="10993" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10994" max="11232" width="9" style="11"/>
     <col min="11233" max="11233" width="3" style="11" customWidth="1"/>
-    <col min="11234" max="11234" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11235" max="11235" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11234" max="11234" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11235" max="11235" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11236" max="11237" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11238" max="11238" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11238" max="11238" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11239" max="11242" width="9" style="11"/>
-    <col min="11243" max="11243" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11244" max="11244" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11243" max="11243" width="11.25" style="11" customWidth="1"/>
+    <col min="11244" max="11244" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11245" max="11246" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11247" max="11247" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11248" max="11249" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11247" max="11247" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11248" max="11249" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11250" max="11488" width="9" style="11"/>
     <col min="11489" max="11489" width="3" style="11" customWidth="1"/>
-    <col min="11490" max="11490" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11491" max="11491" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11490" max="11490" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11491" max="11491" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11492" max="11493" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11494" max="11494" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11494" max="11494" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11495" max="11498" width="9" style="11"/>
-    <col min="11499" max="11499" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11500" max="11500" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11499" max="11499" width="11.25" style="11" customWidth="1"/>
+    <col min="11500" max="11500" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11501" max="11502" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11503" max="11503" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11504" max="11505" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11503" max="11503" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11504" max="11505" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11506" max="11744" width="9" style="11"/>
     <col min="11745" max="11745" width="3" style="11" customWidth="1"/>
-    <col min="11746" max="11746" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11747" max="11747" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11746" max="11746" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11747" max="11747" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11748" max="11749" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11750" max="11750" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11750" max="11750" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11751" max="11754" width="9" style="11"/>
-    <col min="11755" max="11755" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11756" max="11756" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11755" max="11755" width="11.25" style="11" customWidth="1"/>
+    <col min="11756" max="11756" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11757" max="11758" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11759" max="11759" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11760" max="11761" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11759" max="11759" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11760" max="11761" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11762" max="12000" width="9" style="11"/>
     <col min="12001" max="12001" width="3" style="11" customWidth="1"/>
-    <col min="12002" max="12002" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12003" max="12003" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12002" max="12002" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12003" max="12003" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12004" max="12005" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12006" max="12006" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12006" max="12006" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12007" max="12010" width="9" style="11"/>
-    <col min="12011" max="12011" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12012" max="12012" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12011" max="12011" width="11.25" style="11" customWidth="1"/>
+    <col min="12012" max="12012" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12013" max="12014" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12015" max="12015" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12016" max="12017" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12015" max="12015" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12016" max="12017" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12018" max="12256" width="9" style="11"/>
     <col min="12257" max="12257" width="3" style="11" customWidth="1"/>
-    <col min="12258" max="12258" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12259" max="12259" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12258" max="12258" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12259" max="12259" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12260" max="12261" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12262" max="12262" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12262" max="12262" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12263" max="12266" width="9" style="11"/>
-    <col min="12267" max="12267" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12268" max="12268" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12267" max="12267" width="11.25" style="11" customWidth="1"/>
+    <col min="12268" max="12268" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12269" max="12270" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12271" max="12271" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12272" max="12273" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12271" max="12271" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12272" max="12273" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12274" max="12512" width="9" style="11"/>
     <col min="12513" max="12513" width="3" style="11" customWidth="1"/>
-    <col min="12514" max="12514" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12515" max="12515" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12514" max="12514" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12515" max="12515" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12516" max="12517" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12518" max="12518" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12518" max="12518" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12519" max="12522" width="9" style="11"/>
-    <col min="12523" max="12523" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12524" max="12524" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12523" max="12523" width="11.25" style="11" customWidth="1"/>
+    <col min="12524" max="12524" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12525" max="12526" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12527" max="12527" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12528" max="12529" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12527" max="12527" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12528" max="12529" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12530" max="12768" width="9" style="11"/>
     <col min="12769" max="12769" width="3" style="11" customWidth="1"/>
-    <col min="12770" max="12770" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12771" max="12771" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12770" max="12770" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12771" max="12771" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12772" max="12773" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12774" max="12774" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12774" max="12774" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12775" max="12778" width="9" style="11"/>
-    <col min="12779" max="12779" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12780" max="12780" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12779" max="12779" width="11.25" style="11" customWidth="1"/>
+    <col min="12780" max="12780" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12781" max="12782" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12783" max="12783" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12784" max="12785" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12783" max="12783" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12784" max="12785" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12786" max="13024" width="9" style="11"/>
     <col min="13025" max="13025" width="3" style="11" customWidth="1"/>
-    <col min="13026" max="13026" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13027" max="13027" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13026" max="13026" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13027" max="13027" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13028" max="13029" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13030" max="13030" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13030" max="13030" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13031" max="13034" width="9" style="11"/>
-    <col min="13035" max="13035" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13036" max="13036" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13035" max="13035" width="11.25" style="11" customWidth="1"/>
+    <col min="13036" max="13036" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13037" max="13038" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13039" max="13039" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13040" max="13041" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13039" max="13039" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13040" max="13041" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13042" max="13280" width="9" style="11"/>
     <col min="13281" max="13281" width="3" style="11" customWidth="1"/>
-    <col min="13282" max="13282" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13283" max="13283" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13282" max="13282" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13283" max="13283" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13284" max="13285" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13286" max="13286" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13286" max="13286" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13287" max="13290" width="9" style="11"/>
-    <col min="13291" max="13291" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13292" max="13292" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13291" max="13291" width="11.25" style="11" customWidth="1"/>
+    <col min="13292" max="13292" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13293" max="13294" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13295" max="13295" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13296" max="13297" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13295" max="13295" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13296" max="13297" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13298" max="13536" width="9" style="11"/>
     <col min="13537" max="13537" width="3" style="11" customWidth="1"/>
-    <col min="13538" max="13538" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13539" max="13539" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13538" max="13538" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13539" max="13539" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13540" max="13541" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13542" max="13542" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13542" max="13542" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13543" max="13546" width="9" style="11"/>
-    <col min="13547" max="13547" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13548" max="13548" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13547" max="13547" width="11.25" style="11" customWidth="1"/>
+    <col min="13548" max="13548" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13549" max="13550" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13551" max="13551" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13552" max="13553" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13551" max="13551" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13552" max="13553" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13554" max="13792" width="9" style="11"/>
     <col min="13793" max="13793" width="3" style="11" customWidth="1"/>
-    <col min="13794" max="13794" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13795" max="13795" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13794" max="13794" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13795" max="13795" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13796" max="13797" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13798" max="13798" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13798" max="13798" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13799" max="13802" width="9" style="11"/>
-    <col min="13803" max="13803" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13804" max="13804" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13803" max="13803" width="11.25" style="11" customWidth="1"/>
+    <col min="13804" max="13804" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13805" max="13806" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13807" max="13807" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13808" max="13809" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13807" max="13807" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13808" max="13809" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13810" max="14048" width="9" style="11"/>
     <col min="14049" max="14049" width="3" style="11" customWidth="1"/>
-    <col min="14050" max="14050" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14051" max="14051" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14050" max="14050" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14051" max="14051" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14052" max="14053" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14054" max="14054" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14054" max="14054" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14055" max="14058" width="9" style="11"/>
-    <col min="14059" max="14059" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14060" max="14060" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14059" max="14059" width="11.25" style="11" customWidth="1"/>
+    <col min="14060" max="14060" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14061" max="14062" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14063" max="14063" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14064" max="14065" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14063" max="14063" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14064" max="14065" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14066" max="14304" width="9" style="11"/>
     <col min="14305" max="14305" width="3" style="11" customWidth="1"/>
-    <col min="14306" max="14306" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14307" max="14307" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14306" max="14306" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14307" max="14307" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14308" max="14309" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14310" max="14310" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14310" max="14310" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14311" max="14314" width="9" style="11"/>
-    <col min="14315" max="14315" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14316" max="14316" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14315" max="14315" width="11.25" style="11" customWidth="1"/>
+    <col min="14316" max="14316" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14317" max="14318" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14319" max="14319" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14320" max="14321" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14319" max="14319" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14320" max="14321" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14322" max="14560" width="9" style="11"/>
     <col min="14561" max="14561" width="3" style="11" customWidth="1"/>
-    <col min="14562" max="14562" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14563" max="14563" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14562" max="14562" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14563" max="14563" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14564" max="14565" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14566" max="14566" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14566" max="14566" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14567" max="14570" width="9" style="11"/>
-    <col min="14571" max="14571" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14572" max="14572" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14571" max="14571" width="11.25" style="11" customWidth="1"/>
+    <col min="14572" max="14572" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14573" max="14574" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14575" max="14575" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14576" max="14577" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14575" max="14575" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14576" max="14577" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14578" max="14816" width="9" style="11"/>
     <col min="14817" max="14817" width="3" style="11" customWidth="1"/>
-    <col min="14818" max="14818" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14819" max="14819" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14818" max="14818" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14819" max="14819" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14820" max="14821" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14822" max="14822" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14822" max="14822" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14823" max="14826" width="9" style="11"/>
-    <col min="14827" max="14827" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14828" max="14828" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14827" max="14827" width="11.25" style="11" customWidth="1"/>
+    <col min="14828" max="14828" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14829" max="14830" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14831" max="14831" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14832" max="14833" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14831" max="14831" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14832" max="14833" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14834" max="15072" width="9" style="11"/>
     <col min="15073" max="15073" width="3" style="11" customWidth="1"/>
-    <col min="15074" max="15074" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15075" max="15075" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15074" max="15074" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15075" max="15075" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15076" max="15077" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15078" max="15078" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15078" max="15078" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15079" max="15082" width="9" style="11"/>
-    <col min="15083" max="15083" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15084" max="15084" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15083" max="15083" width="11.25" style="11" customWidth="1"/>
+    <col min="15084" max="15084" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15085" max="15086" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15087" max="15087" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15088" max="15089" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15087" max="15087" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15088" max="15089" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15090" max="15328" width="9" style="11"/>
     <col min="15329" max="15329" width="3" style="11" customWidth="1"/>
-    <col min="15330" max="15330" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15331" max="15331" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15330" max="15330" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15331" max="15331" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15332" max="15333" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15334" max="15334" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15334" max="15334" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15335" max="15338" width="9" style="11"/>
-    <col min="15339" max="15339" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15340" max="15340" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15339" max="15339" width="11.25" style="11" customWidth="1"/>
+    <col min="15340" max="15340" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15341" max="15342" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15343" max="15343" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15344" max="15345" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15343" max="15343" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15344" max="15345" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15346" max="15584" width="9" style="11"/>
     <col min="15585" max="15585" width="3" style="11" customWidth="1"/>
-    <col min="15586" max="15586" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15587" max="15587" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15586" max="15586" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15587" max="15587" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15588" max="15589" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15590" max="15590" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15590" max="15590" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15591" max="15594" width="9" style="11"/>
-    <col min="15595" max="15595" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15596" max="15596" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15595" max="15595" width="11.25" style="11" customWidth="1"/>
+    <col min="15596" max="15596" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15597" max="15598" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15599" max="15599" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15600" max="15601" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15599" max="15599" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15600" max="15601" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15602" max="15840" width="9" style="11"/>
     <col min="15841" max="15841" width="3" style="11" customWidth="1"/>
-    <col min="15842" max="15842" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15843" max="15843" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15842" max="15842" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15843" max="15843" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15844" max="15845" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15846" max="15846" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15846" max="15846" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15847" max="15850" width="9" style="11"/>
-    <col min="15851" max="15851" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15852" max="15852" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15851" max="15851" width="11.25" style="11" customWidth="1"/>
+    <col min="15852" max="15852" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15853" max="15854" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15855" max="15855" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15856" max="15857" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15855" max="15855" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15856" max="15857" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15858" max="16096" width="9" style="11"/>
     <col min="16097" max="16097" width="3" style="11" customWidth="1"/>
-    <col min="16098" max="16098" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16099" max="16099" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16098" max="16098" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="16099" max="16099" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="16100" max="16101" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="16102" max="16102" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16102" max="16102" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="16103" max="16106" width="9" style="11"/>
-    <col min="16107" max="16107" width="11.19921875" style="11" customWidth="1"/>
-    <col min="16108" max="16108" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16107" max="16107" width="11.25" style="11" customWidth="1"/>
+    <col min="16108" max="16108" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="16109" max="16110" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="16111" max="16111" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16112" max="16113" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16111" max="16111" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="16112" max="16113" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="16114" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +2485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -2413,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2529,7 @@
       </c>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2551,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
@@ -2479,7 +2571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
@@ -2499,7 +2591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -2525,7 +2617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
@@ -2653,7 +2745,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2765,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2693,7 +2785,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
@@ -2713,7 +2805,7 @@
         <v>267.08</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -2733,7 +2825,7 @@
         <v>277.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
@@ -2753,7 +2845,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2865,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
@@ -2793,7 +2885,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>20</v>
       </c>
@@ -2813,7 +2905,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -2833,7 +2925,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
@@ -2853,7 +2945,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2965,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
@@ -2893,7 +2985,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
@@ -2913,7 +3005,7 @@
         <v>1016.78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +3025,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +3045,7 @@
         <v>1066.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +3065,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>20</v>
       </c>
@@ -2993,7 +3085,7 @@
         <v>1256.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -3013,7 +3105,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>20</v>
       </c>
@@ -3033,7 +3125,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +3145,7 @@
         <v>1328.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>20</v>
       </c>
@@ -3073,7 +3165,7 @@
         <v>1421.66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
@@ -3093,7 +3185,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
@@ -3113,7 +3205,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
@@ -3133,7 +3225,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>20</v>
       </c>
@@ -3153,7 +3245,7 @@
         <v>2977.9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -3173,7 +3265,7 @@
         <v>3048.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>20</v>
       </c>
@@ -3193,7 +3285,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3305,7 @@
         <v>6058.9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3325,7 @@
         <v>15783</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>20</v>
       </c>
@@ -3253,7 +3345,7 @@
         <v>31330.77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -3273,7 +3365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
@@ -3293,7 +3385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +3405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>68</v>
       </c>
@@ -3333,7 +3425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
         <v>68</v>
       </c>
@@ -3353,7 +3445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>68</v>
       </c>
@@ -3373,7 +3465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>68</v>
       </c>
@@ -3393,7 +3485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>68</v>
       </c>
@@ -3413,7 +3505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>68</v>
       </c>
@@ -3433,7 +3525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>68</v>
       </c>
@@ -3453,7 +3545,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>68</v>
       </c>
@@ -3480,25 +3572,26 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
@@ -3527,7 +3620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>94</v>
       </c>
@@ -3549,9 +3642,12 @@
       <c r="G2" s="22">
         <v>60</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H2" s="33">
+        <f>COUNT(B2:G2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>95</v>
       </c>
@@ -3573,9 +3669,16 @@
       <c r="G3" s="22">
         <v>64</v>
       </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H3" s="33">
+        <f t="shared" ref="H3:H15" si="0">COUNT(B3:G3)</f>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="1">COUNTIF(B3:G3,"&gt;=60")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>96</v>
       </c>
@@ -3597,9 +3700,16 @@
       <c r="G4" s="22">
         <v>91</v>
       </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H4" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -3621,9 +3731,16 @@
       <c r="G5" s="22">
         <v>55</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H5" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>98</v>
       </c>
@@ -3645,9 +3762,16 @@
       <c r="G6" s="22">
         <v>71</v>
       </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H6" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>99</v>
       </c>
@@ -3667,9 +3791,16 @@
       <c r="G7" s="22">
         <v>77</v>
       </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>100</v>
       </c>
@@ -3691,9 +3822,16 @@
       <c r="G8" s="22">
         <v>91</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H8" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>101</v>
       </c>
@@ -3715,9 +3853,16 @@
       <c r="G9" s="22">
         <v>55.8</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H9" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>102</v>
       </c>
@@ -3739,9 +3884,16 @@
       <c r="G10" s="22">
         <v>48.9</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H10" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>103</v>
       </c>
@@ -3761,9 +3913,16 @@
       <c r="G11" s="22">
         <v>88</v>
       </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H11" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
@@ -3785,9 +3944,16 @@
       <c r="G12" s="22">
         <v>99</v>
       </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H12" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>105</v>
       </c>
@@ -3807,9 +3973,16 @@
       <c r="G13" s="22">
         <v>90</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H13" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
@@ -3831,9 +4004,16 @@
       <c r="G14" s="22">
         <v>61</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H14" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>107</v>
       </c>
@@ -3855,7 +4035,14 @@
       <c r="G15" s="22">
         <v>85</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3864,21 +4051,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>110</v>
       </c>
@@ -3886,17 +4073,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>COUNTIF(A2:A3,A2&amp;"*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>110</v>
       </c>
@@ -3905,69 +4096,121 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>COUNTIF($A$8:$A$20,A8&amp;"*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" ref="B9:B20" si="0">COUNTIF($A$8:$A$20,A9&amp;"*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>114</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3977,20 +4220,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>158</v>
       </c>
@@ -4001,261 +4244,424 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>126</v>
       </c>
+      <c r="B2" t="str">
+        <f>IF(COUNTIF(G:G,A2)=0,"未体检","已体检")</f>
+        <v>已体检</v>
+      </c>
       <c r="G2" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>127</v>
       </c>
+      <c r="B3" t="str">
+        <f>IF(COUNTIF(G:G,A3)=0,"未体检","已体检")</f>
+        <v>已体检</v>
+      </c>
       <c r="G3" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
         <v>128</v>
       </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B2:B33" si="0">IF(COUNTIF(G:G,A4)=0,"未体检","已体检")</f>
+        <v>已体检</v>
+      </c>
       <c r="G4" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>129</v>
       </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G5" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>130</v>
       </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G6" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>131</v>
       </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G7" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G8" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
         <v>133</v>
       </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
       <c r="G9" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
         <v>134</v>
       </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G10" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
         <v>135</v>
       </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G11" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>136</v>
       </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G12" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
         <v>137</v>
       </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
       <c r="G13" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
         <v>138</v>
       </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
       <c r="G14" s="27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="27" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>已体检</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>157</v>
       </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>未体检</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>COUNTIF(G:G,A2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.8984375" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>222</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{59EA7F44-9EA0-4728-AB9D-1C540BD36AE7}">
+      <formula1>COUNTIF(C:C,C1)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I20" xr:uid="{1DE50850-B181-4BD0-8431-228FBB8BCE67}">
+      <formula1>COUNTIF($D$2:$I$22,D2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="E1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="7" max="7" width="37.59765625" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E1" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E2" s="26" t="s">
         <v>111</v>
       </c>
@@ -4263,83 +4669,88 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E3" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E4" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E5" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E6" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E7" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E8" s="26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E9" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E10" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E11" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E12" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E13" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E14" s="26" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($E$2:$E$14,E2&amp;"*")&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -4359,7 +4770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +4790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -4399,7 +4810,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
@@ -4428,7 +4839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
@@ -4453,9 +4864,12 @@
       <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="18">
+        <f>COUNTIFS(E:E,J5,D:D,I5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
@@ -4480,9 +4894,12 @@
       <c r="J6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="18">
+        <f t="shared" ref="K6:K8" si="0">COUNTIFS(E:E,J6,D:D,I6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -4507,9 +4924,12 @@
       <c r="J7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -4534,9 +4954,12 @@
       <c r="J8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -4556,7 +4979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -4576,7 +4999,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
@@ -4596,7 +5019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
@@ -4616,7 +5039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -4636,7 +5059,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
@@ -4656,7 +5079,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
@@ -4676,7 +5099,7 @@
         <v>267.08</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -4696,7 +5119,7 @@
         <v>277.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
@@ -4716,7 +5139,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
@@ -4736,7 +5159,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
@@ -4756,7 +5179,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>20</v>
       </c>
@@ -4776,7 +5199,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -4796,7 +5219,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
@@ -4816,7 +5239,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>20</v>
       </c>
@@ -4836,7 +5259,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
@@ -4856,7 +5279,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +5299,7 @@
         <v>1016.78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
@@ -4896,7 +5319,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>20</v>
       </c>
@@ -4916,7 +5339,7 @@
         <v>1066.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
@@ -4936,7 +5359,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>20</v>
       </c>
@@ -4956,7 +5379,7 @@
         <v>1256.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
@@ -4976,7 +5399,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>20</v>
       </c>
@@ -4996,7 +5419,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -5016,7 +5439,7 @@
         <v>1328.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>20</v>
       </c>
@@ -5036,7 +5459,7 @@
         <v>1421.66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
@@ -5056,7 +5479,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
@@ -5076,7 +5499,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
@@ -5096,7 +5519,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>20</v>
       </c>
@@ -5116,7 +5539,7 @@
         <v>2977.9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
@@ -5136,7 +5559,7 @@
         <v>3048.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>20</v>
       </c>
@@ -5156,7 +5579,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
@@ -5176,7 +5599,7 @@
         <v>6058.9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>20</v>
       </c>
@@ -5196,7 +5619,7 @@
         <v>15783</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>20</v>
       </c>
@@ -5216,7 +5639,7 @@
         <v>31330.77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -5236,7 +5659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
@@ -5256,7 +5679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>68</v>
       </c>
@@ -5276,7 +5699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
         <v>68</v>
       </c>
@@ -5316,7 +5739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>68</v>
       </c>
@@ -5336,7 +5759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>68</v>
       </c>
@@ -5356,7 +5779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>68</v>
       </c>
@@ -5376,7 +5799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>68</v>
       </c>
@@ -5396,7 +5819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>68</v>
       </c>
@@ -5416,7 +5839,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>68</v>
       </c>
